--- a/RealCase/RealCase_tmp.xlsx
+++ b/RealCase/RealCase_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python\Multioutput_FixedG_GP\RealCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2C533-C3D4-4333-8D6B-30193C8C1BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645B33B-5531-42C8-9637-E33A34F081C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
         <v>-0.16174492220585601</v>
       </c>
       <c r="M2">
-        <v>-5.5399841594086605E-2</v>
+        <v>-6.2343831794440405E-2</v>
       </c>
       <c r="N2">
         <v>-0.14572084009398001</v>
@@ -713,10 +713,10 @@
         <v>0.34145148052682001</v>
       </c>
       <c r="S2">
-        <v>0.51270913311277899</v>
+        <v>0.47752260469046931</v>
       </c>
       <c r="T2">
-        <v>0.59970567791936802</v>
+        <v>0.53291500102565204</v>
       </c>
       <c r="U2">
         <v>0.56041516237343947</v>
@@ -740,10 +740,10 @@
         <v>0.43312320004481797</v>
       </c>
       <c r="AB2">
-        <v>0.4688499208776245</v>
+        <v>0.45066042615280771</v>
       </c>
       <c r="AC2">
-        <v>0.27404539037793396</v>
+        <v>0.24240896199339282</v>
       </c>
       <c r="AD2">
         <v>0.320195551760043</v>
@@ -804,8 +804,8 @@
         <v>-0.16174492220585601</v>
       </c>
       <c r="M3">
-        <f>AVERAGE(U37,U21)</f>
-        <v>-5.5399841594086605E-2</v>
+        <f>AVERAGE(U37,U15)</f>
+        <v>-6.2343831794440405E-2</v>
       </c>
       <c r="N3">
         <f>AVERAGE(AD27,AE27)</f>
@@ -826,12 +826,12 @@
         <v>0.34145148052682001</v>
       </c>
       <c r="S3">
-        <f>AVERAGE(I21,I40)</f>
-        <v>0.51270913311277899</v>
+        <f>AVERAGE(I21,I40:I41)</f>
+        <v>0.47752260469046931</v>
       </c>
       <c r="T3">
-        <f>AVERAGE(J40)</f>
-        <v>0.59970567791936802</v>
+        <f>AVERAGE(J40,J41)</f>
+        <v>0.53291500102565204</v>
       </c>
       <c r="U3">
         <f>AVERAGE(K21,K41)</f>
@@ -861,12 +861,12 @@
         <v>0.43312320004481797</v>
       </c>
       <c r="AB3">
-        <f>AVERAGE(Z17,Z39)</f>
-        <v>0.4688499208776245</v>
+        <f>AVERAGE(Z17:Z18,Z39)</f>
+        <v>0.45066042615280771</v>
       </c>
       <c r="AC3">
-        <f>AVERAGE(AA20,AA40)</f>
-        <v>0.27404539037793396</v>
+        <f>AVERAGE(AA19:AA21,AA40:AA41)</f>
+        <v>0.24240896199339282</v>
       </c>
       <c r="AD3">
         <f>AVERAGE(AJ28,AK28)</f>
